--- a/ER-Diagram.xlsx
+++ b/ER-Diagram.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
-    <sheet name="Rack" sheetId="2" r:id="rId1"/>
-    <sheet name="Nord" sheetId="3" r:id="rId2"/>
+    <sheet name="Nord" sheetId="3" r:id="rId1"/>
+    <sheet name="Rack" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -22,6 +22,107 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+  <si>
+    <t>store_name</t>
+  </si>
+  <si>
+    <t>comp_status_code</t>
+  </si>
+  <si>
+    <t>comp_status_desc</t>
+  </si>
+  <si>
+    <t>day_idnt</t>
+  </si>
+  <si>
+    <t>day_date</t>
+  </si>
+  <si>
+    <t>week_454_label</t>
+  </si>
+  <si>
+    <t>month_454_label</t>
+  </si>
+  <si>
+    <t>quarter_idnt</t>
+  </si>
+  <si>
+    <t>fiscal_year_num</t>
+  </si>
+  <si>
+    <t>subgroup_num</t>
+  </si>
+  <si>
+    <t>subgroup_short_desc</t>
+  </si>
+  <si>
+    <t>store_type_code</t>
+  </si>
+  <si>
+    <t>banner_country_num</t>
+  </si>
+  <si>
+    <t>banner_country_desc</t>
+  </si>
+  <si>
+    <t>channel_num</t>
+  </si>
+  <si>
+    <t>channel_label</t>
+  </si>
+  <si>
+    <t>store_num</t>
+  </si>
+  <si>
+    <t>division_num</t>
+  </si>
+  <si>
+    <t>division_label</t>
+  </si>
+  <si>
+    <t>subdivision_num</t>
+  </si>
+  <si>
+    <t>subdivision_label</t>
+  </si>
+  <si>
+    <t>dept_num</t>
+  </si>
+  <si>
+    <t>department_label</t>
+  </si>
+  <si>
+    <t>week_num</t>
+  </si>
+  <si>
+    <t>month_num</t>
+  </si>
+  <si>
+    <t>qtr_label</t>
+  </si>
+  <si>
+    <t>org_channel_dim</t>
+  </si>
+  <si>
+    <t>store_dim</t>
+  </si>
+  <si>
+    <t>store_status_lkup_alias</t>
+  </si>
+  <si>
+    <t>department_dim</t>
+  </si>
+  <si>
+    <t>day_cal_454_dim</t>
+  </si>
+  <si>
+    <t>merch_week_cal_454_vw</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,12 +152,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -75,6 +192,1772 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>20683</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>2177</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10340340" y="2170611"/>
+          <a:ext cx="4858294" cy="1465218"/>
+          <a:chOff x="5379720" y="1943100"/>
+          <a:chExt cx="5334000" cy="1386840"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5379720" y="1943100"/>
+            <a:ext cx="5334000" cy="1386840"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745480" y="2026920"/>
+            <a:ext cx="4808220" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>MERCH_TRANSACTION_SKU_STORE_DAY_AGG_FACT_TY_LY_VW</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5707380" y="2430780"/>
+            <a:ext cx="4808220" cy="708660"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>RMS_SKU_NUM</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>day_num</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>store_num</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>149134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>149134</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7282543" y="3817620"/>
+          <a:ext cx="2427514" cy="925285"/>
+          <a:chOff x="5379720" y="1943100"/>
+          <a:chExt cx="5334000" cy="1386840"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5379720" y="1943100"/>
+            <a:ext cx="5334000" cy="1386840"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745480" y="2026920"/>
+            <a:ext cx="4808220" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>DAY_CAL_454_DIM</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5707380" y="2430780"/>
+            <a:ext cx="4808220" cy="708660"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>day_idnt</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>week_idnt</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>587830</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14152</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Group 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4201887" y="3836126"/>
+          <a:ext cx="2474322" cy="925285"/>
+          <a:chOff x="5379720" y="1943100"/>
+          <a:chExt cx="5334000" cy="1386840"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5379720" y="1943100"/>
+            <a:ext cx="5334000" cy="1386840"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745480" y="2026920"/>
+            <a:ext cx="4808220" cy="205740"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>MERCH_WEEK_CAL_454_VW</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5707380" y="2430780"/>
+            <a:ext cx="4808220" cy="708660"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>week_idnt</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160018</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7195457" y="1206847"/>
+          <a:ext cx="2606040" cy="956142"/>
+          <a:chOff x="5196392" y="1894265"/>
+          <a:chExt cx="5721275" cy="1435675"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5379720" y="1943100"/>
+            <a:ext cx="5334000" cy="1386840"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5196392" y="1894265"/>
+            <a:ext cx="5721275" cy="470916"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>MERCH_PRODUCT_SKU_DIM_AS_IS_VW</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5581874" y="2406660"/>
+            <a:ext cx="4808220" cy="708661"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>RMS_SKU_NUM</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>dept_num</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>84908</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160019</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="Group 17"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4147457" y="1206848"/>
+          <a:ext cx="2599508" cy="956142"/>
+          <a:chOff x="5196392" y="1894265"/>
+          <a:chExt cx="5721275" cy="1435675"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="Rectangle 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5379720" y="1943100"/>
+            <a:ext cx="5334000" cy="1386840"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5196392" y="1894265"/>
+            <a:ext cx="5721275" cy="470916"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Department_dim</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5581874" y="2406660"/>
+            <a:ext cx="4808220" cy="708661"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>dept_num</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>118275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="Group 21"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7184571" y="2491361"/>
+          <a:ext cx="2616926" cy="1013840"/>
+          <a:chOff x="5196392" y="1894265"/>
+          <a:chExt cx="5721275" cy="1510206"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Rectangle 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5379720" y="1943100"/>
+            <a:ext cx="5334000" cy="1386840"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5196392" y="1894265"/>
+            <a:ext cx="5721275" cy="470916"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>STORE_DIM</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5600972" y="2312566"/>
+            <a:ext cx="4973990" cy="1091905"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>store_num</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>channel_num</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>comp_status_code</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>522515</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>102327</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="Group 25"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4136572" y="2502249"/>
+          <a:ext cx="2627812" cy="956142"/>
+          <a:chOff x="5196392" y="1894265"/>
+          <a:chExt cx="5721275" cy="1435674"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="Rectangle 26"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5379720" y="1943099"/>
+            <a:ext cx="5334000" cy="1386840"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5196392" y="1894265"/>
+            <a:ext cx="5721275" cy="470916"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Org_Dim</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5581874" y="2406660"/>
+            <a:ext cx="4808220" cy="708661"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>Channel_num</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>20683</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="9764486" y="1817914"/>
+          <a:ext cx="575854" cy="987336"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1089</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="9764486" y="2982686"/>
+          <a:ext cx="556260" cy="10885"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>62049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="9710057" y="3298372"/>
+          <a:ext cx="620486" cy="802277"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601843</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>72840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7306</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>72841</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="6654300" y="1673040"/>
+          <a:ext cx="624663" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>608158</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>105497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>37100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>105498</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="6660615" y="2924897"/>
+          <a:ext cx="648142" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>58872</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94612</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="6678032" y="4133211"/>
+          <a:ext cx="652497" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200297</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>94703</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="Group 37"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9122228" y="63846"/>
+          <a:ext cx="2616926" cy="923486"/>
+          <a:chOff x="5196392" y="1894265"/>
+          <a:chExt cx="5721275" cy="1435675"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="Rectangle 38"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5379720" y="1943100"/>
+            <a:ext cx="5334000" cy="1386840"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5196392" y="1894265"/>
+            <a:ext cx="5721275" cy="470916"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1000" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>STORE_STATUS_LKUP_ALIAS</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="Text Box 1"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5581874" y="2406660"/>
+            <a:ext cx="4808220" cy="708661"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>comp_status_code (NW,CP)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>comp_status_desc (New,Comp)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>206829</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="979714"/>
+          <a:ext cx="10886" cy="1426029"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1631,1526 +3514,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>20683</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>2177</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9164683" y="2083526"/>
-          <a:ext cx="4858294" cy="1378131"/>
-          <a:chOff x="5379720" y="1943100"/>
-          <a:chExt cx="5334000" cy="1386840"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectangle 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5379720" y="1943100"/>
-            <a:ext cx="5334000" cy="1386840"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-IN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5745480" y="2026920"/>
-            <a:ext cx="4808220" cy="205740"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>MERCH_TRANSACTION_SKU_STORE_DAY_AGG_FACT_TY_LY_VW</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5707380" y="2430780"/>
-            <a:ext cx="4808220" cy="708660"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>RMS_SKU_NUM</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>day_num</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>store_num</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>149134</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>149134</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="Group 5"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6106886" y="3632563"/>
-          <a:ext cx="2427514" cy="870857"/>
-          <a:chOff x="5379720" y="1943100"/>
-          <a:chExt cx="5334000" cy="1386840"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Rectangle 6"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5379720" y="1943100"/>
-            <a:ext cx="5334000" cy="1386840"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-IN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5745480" y="2026920"/>
-            <a:ext cx="4808220" cy="205740"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>DAY_CAL_454_DIM</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5707380" y="2430780"/>
-            <a:ext cx="4808220" cy="708660"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>day_idnt</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>week_idnt</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>587830</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>14152</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Group 9"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3026230" y="3651069"/>
-          <a:ext cx="2474322" cy="870857"/>
-          <a:chOff x="5379720" y="1943100"/>
-          <a:chExt cx="5334000" cy="1386840"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Rectangle 10"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5379720" y="1943100"/>
-            <a:ext cx="5334000" cy="1386840"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-IN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5745480" y="2026920"/>
-            <a:ext cx="4808220" cy="205740"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>MERCH_WEEK_CAL_454_VW</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5707380" y="2430780"/>
-            <a:ext cx="4808220" cy="708660"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>week_idnt</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>129161</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>160018</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="Group 13"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6019800" y="1174190"/>
-          <a:ext cx="2606040" cy="901714"/>
-          <a:chOff x="5196392" y="1894265"/>
-          <a:chExt cx="5721275" cy="1435675"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 14"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5379720" y="1943100"/>
-            <a:ext cx="5334000" cy="1386840"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-IN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5196392" y="1894265"/>
-            <a:ext cx="5721275" cy="470916"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>MERCH_PRODUCT_SKU_DIM_AS_IS_VW</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5581874" y="2406660"/>
-            <a:ext cx="4808220" cy="708661"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>RMS_SKU_NUM</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>dept_num</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>129162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>84908</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>160019</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="18" name="Group 17"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2971800" y="1174191"/>
-          <a:ext cx="2599508" cy="901714"/>
-          <a:chOff x="5196392" y="1894265"/>
-          <a:chExt cx="5721275" cy="1435675"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Rectangle 18"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5379720" y="1943100"/>
-            <a:ext cx="5334000" cy="1386840"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-IN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5196392" y="1894265"/>
-            <a:ext cx="5721275" cy="470916"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Department_dim</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5581874" y="2406660"/>
-            <a:ext cx="4808220" cy="708661"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>dept_num</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>522514</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>118275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>149132</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="Group 21"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6008914" y="2382504"/>
-          <a:ext cx="2616926" cy="901714"/>
-          <a:chOff x="5196392" y="1894265"/>
-          <a:chExt cx="5721275" cy="1435675"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="Rectangle 22"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5379720" y="1943100"/>
-            <a:ext cx="5334000" cy="1386840"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-IN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5196392" y="1894265"/>
-            <a:ext cx="5721275" cy="470916"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>STORE_DIM</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5581874" y="2406660"/>
-            <a:ext cx="4808220" cy="708661"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>store_num</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>channel_num</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>522515</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>129163</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>102327</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="Group 25"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2960915" y="2393392"/>
-          <a:ext cx="2627812" cy="901714"/>
-          <a:chOff x="5196392" y="1894265"/>
-          <a:chExt cx="5721275" cy="1435674"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="Rectangle 26"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5379720" y="1943099"/>
-            <a:ext cx="5334000" cy="1386840"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-IN" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5196392" y="1894265"/>
-            <a:ext cx="5721275" cy="470916"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Org_Dim</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5581874" y="2406660"/>
-            <a:ext cx="4808220" cy="708661"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="ctr" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>Channel_num</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>20683</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>160021</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9442269" y="1796143"/>
-          <a:ext cx="636814" cy="992778"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>664029</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9442269" y="2967446"/>
-          <a:ext cx="609600" cy="11974"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>62049</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="7" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9380220" y="3285309"/>
-          <a:ext cx="689066" cy="807720"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>601843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>72840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7306</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>72841</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="1"/>
-          <a:endCxn id="19" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5478643" y="1640383"/>
-          <a:ext cx="624663" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>669118</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>105497</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>37100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>105498</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6033598" y="2909657"/>
-          <a:ext cx="709102" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>15975</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>94611</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>58872</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>94612</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6051015" y="4125591"/>
-          <a:ext cx="713457" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3414,14 +3777,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A4:B29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="21.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3433,10 +4008,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
